--- a/data/snapshot.05062024.deidentified.xlsx
+++ b/data/snapshot.05062024.deidentified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelchary/Documents/GitHub/INTOXICATE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E2876B-9A02-B24D-8B83-EF733613BCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF836F6A-8A41-9B42-B1C4-961DFB7F6082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1640" windowWidth="27220" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="5880" windowWidth="27220" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tox Book" sheetId="1" r:id="rId1"/>
@@ -3247,23 +3247,23 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4820,7 +4820,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="3">
@@ -4835,27 +4835,27 @@
       <c r="E35" s="2">
         <v>1006702172</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="43"/>
+      <c r="I35" s="44"/>
       <c r="J35" s="30"/>
-      <c r="K35" s="46" t="s">
+      <c r="K35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="44"/>
-      <c r="N35" s="44" t="s">
+      <c r="L35" s="42"/>
+      <c r="N35" s="42" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="3">
         <v>45036</v>
       </c>
@@ -4868,14 +4868,14 @@
       <c r="E36" s="2">
         <v>1006702172</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="30"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="44"/>
-      <c r="N36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="42"/>
+      <c r="N36" s="42"/>
     </row>
     <row r="37" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
@@ -5134,28 +5134,28 @@
       <c r="E45" s="2">
         <v>1201620056</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="I45" s="43" t="s">
+      <c r="I45" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="K45" s="46" t="s">
+      <c r="K45" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="L45" s="47" t="s">
+      <c r="L45" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="M45" s="44" t="s">
+      <c r="M45" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="N45" s="44" t="s">
+      <c r="N45" s="42" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5175,14 +5175,14 @@
       <c r="E46" s="2">
         <v>1201620056</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -5313,7 +5313,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="3">
@@ -5328,18 +5328,18 @@
       <c r="E51" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F51" s="45" t="s">
+      <c r="F51" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="44" t="s">
+      <c r="G51" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="H51" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="I51" s="44"/>
+      <c r="I51" s="42"/>
       <c r="J51" s="31"/>
-      <c r="K51" s="46" t="s">
+      <c r="K51" s="45" t="s">
         <v>99</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -5347,7 +5347,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="3">
         <v>45042</v>
       </c>
@@ -5360,18 +5360,18 @@
       <c r="E52" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
       <c r="J52" s="31"/>
-      <c r="K52" s="46"/>
+      <c r="K52" s="45"/>
       <c r="N52" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="3">
         <v>45043</v>
       </c>
@@ -5384,12 +5384,12 @@
       <c r="E53" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F53" s="45"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
       <c r="J53" s="31"/>
-      <c r="K53" s="46"/>
+      <c r="K53" s="45"/>
       <c r="N53" s="1" t="s">
         <v>100</v>
       </c>
@@ -5552,21 +5552,21 @@
       <c r="E59" s="1">
         <v>1008151593</v>
       </c>
-      <c r="F59" s="45" t="s">
+      <c r="F59" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G59" s="44" t="s">
+      <c r="G59" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="H59" s="44" t="s">
+      <c r="H59" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="I59" s="44"/>
+      <c r="I59" s="42"/>
       <c r="J59" s="31"/>
-      <c r="K59" s="46" t="s">
+      <c r="K59" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="N59" s="44" t="s">
+      <c r="N59" s="42" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5583,13 +5583,13 @@
       <c r="E60" s="1">
         <v>1008151593</v>
       </c>
-      <c r="F60" s="45"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
       <c r="J60" s="31"/>
-      <c r="K60" s="46"/>
-      <c r="N60" s="44"/>
+      <c r="K60" s="45"/>
+      <c r="N60" s="42"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
@@ -7137,7 +7137,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="44" t="s">
+      <c r="A109" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B109" s="3">
@@ -7152,16 +7152,16 @@
       <c r="E109" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F109" s="45" t="s">
+      <c r="F109" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="G109" s="44" t="s">
+      <c r="G109" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="H109" s="44" t="s">
+      <c r="H109" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="K109" s="44" t="s">
+      <c r="K109" s="42" t="s">
         <v>99</v>
       </c>
       <c r="N109" s="1" t="s">
@@ -7169,7 +7169,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="44"/>
+      <c r="A110" s="42"/>
       <c r="B110" s="3">
         <v>45087</v>
       </c>
@@ -7182,16 +7182,16 @@
       <c r="E110" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F110" s="45"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="K110" s="44"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="K110" s="42"/>
       <c r="N110" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="44"/>
+      <c r="A111" s="42"/>
       <c r="B111" s="3">
         <v>45088</v>
       </c>
@@ -7204,10 +7204,10 @@
       <c r="E111" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F111" s="45"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
-      <c r="K111" s="44"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="K111" s="42"/>
       <c r="N111" s="1" t="s">
         <v>100</v>
       </c>
@@ -7703,7 +7703,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="44" t="s">
+      <c r="A132" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B132" s="3">
@@ -7718,12 +7718,12 @@
       <c r="E132" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N132" s="44" t="s">
+      <c r="N132" s="42" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="44"/>
+      <c r="A133" s="42"/>
       <c r="B133" s="3">
         <v>45104</v>
       </c>
@@ -7736,10 +7736,10 @@
       <c r="E133" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N133" s="44"/>
+      <c r="N133" s="42"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="44"/>
+      <c r="A134" s="42"/>
       <c r="B134" s="3">
         <v>45105</v>
       </c>
@@ -7752,7 +7752,7 @@
       <c r="E134" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N134" s="44"/>
+      <c r="N134" s="42"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
@@ -7775,7 +7775,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="44" t="s">
+      <c r="A136" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B136" s="3">
@@ -7790,12 +7790,12 @@
       <c r="E136" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N136" s="44" t="s">
+      <c r="N136" s="42" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="44"/>
+      <c r="A137" s="42"/>
       <c r="B137" s="3">
         <v>45104</v>
       </c>
@@ -7808,10 +7808,10 @@
       <c r="E137" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N137" s="44"/>
+      <c r="N137" s="42"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="44"/>
+      <c r="A138" s="42"/>
       <c r="B138" s="3">
         <v>45105</v>
       </c>
@@ -7824,7 +7824,7 @@
       <c r="E138" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N138" s="44"/>
+      <c r="N138" s="42"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
@@ -7867,7 +7867,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="44" t="s">
+      <c r="A141" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B141" s="3">
@@ -7887,7 +7887,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="44"/>
+      <c r="A142" s="42"/>
       <c r="B142" s="3">
         <v>45108</v>
       </c>
@@ -8313,7 +8313,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="46" t="s">
+      <c r="A164" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B164" s="3">
@@ -8330,7 +8330,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="46"/>
+      <c r="A165" s="45"/>
       <c r="B165" s="3">
         <v>45140</v>
       </c>
@@ -8600,7 +8600,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="44" t="s">
+      <c r="A181" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B181" s="3">
@@ -8617,7 +8617,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="44"/>
+      <c r="A182" s="42"/>
       <c r="B182" s="3">
         <v>45153</v>
       </c>
@@ -8632,7 +8632,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="44" t="s">
+      <c r="A183" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B183" s="3">
@@ -8649,7 +8649,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="44"/>
+      <c r="A184" s="42"/>
       <c r="B184" s="3">
         <v>45154</v>
       </c>
@@ -8681,7 +8681,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="46" t="s">
+      <c r="A186" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B186" s="3">
@@ -8698,7 +8698,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="46"/>
+      <c r="A187" s="45"/>
       <c r="B187" s="3">
         <v>45154</v>
       </c>
@@ -8713,7 +8713,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="44" t="s">
+      <c r="A188" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B188" s="3">
@@ -8730,7 +8730,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="44"/>
+      <c r="A189" s="42"/>
       <c r="B189" s="3">
         <v>45154</v>
       </c>
@@ -9984,7 +9984,7 @@
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A274" s="46" t="s">
+      <c r="A274" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B274" s="3">
@@ -9999,31 +9999,31 @@
       <c r="E274" s="2">
         <v>1401468415</v>
       </c>
-      <c r="F274" s="48" t="s">
+      <c r="F274" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="G274" s="46" t="s">
+      <c r="G274" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="H274" s="46" t="s">
+      <c r="H274" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="I274" s="46" t="s">
+      <c r="I274" s="45" t="s">
         <v>136</v>
       </c>
       <c r="J274" s="32"/>
-      <c r="K274" s="46" t="s">
+      <c r="K274" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L274" s="48" t="s">
+      <c r="L274" s="46" t="s">
         <v>565</v>
       </c>
-      <c r="M274" s="44" t="s">
+      <c r="M274" s="42" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A275" s="46"/>
+      <c r="A275" s="45"/>
       <c r="B275" s="3">
         <v>45223</v>
       </c>
@@ -10036,14 +10036,14 @@
       <c r="E275" s="2">
         <v>1401468415</v>
       </c>
-      <c r="F275" s="48"/>
-      <c r="G275" s="46"/>
-      <c r="H275" s="46"/>
-      <c r="I275" s="46"/>
+      <c r="F275" s="46"/>
+      <c r="G275" s="45"/>
+      <c r="H275" s="45"/>
+      <c r="I275" s="45"/>
       <c r="J275" s="32"/>
-      <c r="K275" s="46"/>
-      <c r="L275" s="48"/>
-      <c r="M275" s="44"/>
+      <c r="K275" s="45"/>
+      <c r="L275" s="46"/>
+      <c r="M275" s="42"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B276" s="3">
@@ -13725,35 +13725,12 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="M274:M275"/>
-    <mergeCell ref="L274:L275"/>
-    <mergeCell ref="F274:F275"/>
-    <mergeCell ref="G274:G275"/>
-    <mergeCell ref="H274:H275"/>
-    <mergeCell ref="I274:I275"/>
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="N136:N138"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="H109:H111"/>
-    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="N132:N134"/>
@@ -13770,12 +13747,35 @@
     <mergeCell ref="L45:L46"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="K45:K46"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="N136:N138"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="M274:M275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="F274:F275"/>
+    <mergeCell ref="G274:G275"/>
+    <mergeCell ref="H274:H275"/>
+    <mergeCell ref="I274:I275"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -13789,8 +13789,8 @@
   <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19668,4 +19668,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{bb57ef57-3711-4d0f-977a-1ea488dc371e}" enabled="1" method="Privileged" siteId="{f71b58b5-4126-43a9-bcb3-21c9de6f5241}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>